--- a/005Submisson/002Week6Submission/004UnitTestAndE2E/TesingList.xlsx
+++ b/005Submisson/002Week6Submission/004UnitTestAndE2E/TesingList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lic9\Desktop\000mygit\CM_Matting\005Submisson\002Week6Submission\004UnitTestAndE2E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonglingyu\Desktop\recover\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBF6E0B-7ECC-4101-A929-EFB5CA4A9AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C1DE94-26E5-48D6-BA4A-C447F1052970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unittest" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="292">
   <si>
     <t>Use Case No.</t>
   </si>
@@ -337,252 +337,705 @@
     <t>TC-001</t>
   </si>
   <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>Processing High-Resolution Image</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>Processing Noisy Image</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>UC-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-002</t>
+  </si>
+  <si>
+    <t>UC-003</t>
+  </si>
+  <si>
+    <t>UC-005</t>
+  </si>
+  <si>
+    <t>UC-009</t>
+  </si>
+  <si>
+    <t>UC-010</t>
+  </si>
+  <si>
+    <t>UC-011</t>
+  </si>
+  <si>
+    <t>UC-012</t>
+  </si>
+  <si>
+    <t>UC-013</t>
+  </si>
+  <si>
+    <t>UC-014</t>
+  </si>
+  <si>
+    <t>UC-015</t>
+  </si>
+  <si>
+    <t>UC-016</t>
+  </si>
+  <si>
+    <t>UC-017</t>
+  </si>
+  <si>
+    <t>UC-018</t>
+  </si>
+  <si>
+    <t>UC-019</t>
+  </si>
+  <si>
+    <t>UC-020</t>
+  </si>
+  <si>
+    <t>UC-021</t>
+  </si>
+  <si>
+    <t>UC-022</t>
+  </si>
+  <si>
+    <t>UC-023</t>
+  </si>
+  <si>
+    <t>UC-024</t>
+  </si>
+  <si>
+    <t>UC-025</t>
+  </si>
+  <si>
+    <t>UC-026</t>
+  </si>
+  <si>
+    <t>UC-027</t>
+  </si>
+  <si>
+    <t>UC-028</t>
+  </si>
+  <si>
+    <t>UC-029</t>
+  </si>
+  <si>
+    <t>UC-030</t>
+  </si>
+  <si>
+    <t>UC-031</t>
+  </si>
+  <si>
+    <t>UC-032</t>
+  </si>
+  <si>
+    <t>Alpha Matte Calculation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preprocessing pics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Case No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noise Handling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate frontImg(x, y, channel)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate backImg(x, y, channel)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate unkownImg(x, y, channel)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run the code to calculate means and covariance matrices.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run the code to generate output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oriImg(x, y, 3), triMap(x, y, 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robustness Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oriImg(x, y, 3), triMap(x, y), give gray picture input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generate matrix frontImg (x, y, channel), size equals to orgin image, get right part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generate matrix backImg(x, y, channel), size equals to orgin image, get right part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generate matrix unkownImg(x, y, channel), size equals to orgin image, get right part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generate matrix frontImg(x, y, channel), size equals to orgin image, get right part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Gray Trimap Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontImg and backImg have distinct non-zero regions; unknownImg is properly initialized.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistical Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t>TC-010</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>Boundary detection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Categories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backward Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward Testiing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Original Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Trimap Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Background Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save AlphaMap Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save Result Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Initialisation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Whole Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Image Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output Image Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User-defined Input Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Log Display Log Message in real time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>TC-018</t>
+  </si>
+  <si>
+    <t>TC-019</t>
+  </si>
+  <si>
+    <t>TC-020</t>
+  </si>
+  <si>
+    <t>TC-021</t>
+  </si>
+  <si>
+    <t>Input Without Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save Without Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input original image and Trimap size mismatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Without Input Original Images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Without Input Trimap Images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Without Input Background Images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iteration Type Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iteration Boundry Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalValue Type Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OriginalValue Boundry Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Botton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Background Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save Without Constents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When System Running we can not click the botton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Log Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Only 
+User Can Not Edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-022</t>
+  </si>
+  <si>
+    <t>TC-023</t>
+  </si>
+  <si>
+    <t>TC-024</t>
+  </si>
+  <si>
+    <t>TC-025</t>
+  </si>
+  <si>
+    <t>TC-026</t>
+  </si>
+  <si>
+    <t>TC-027</t>
+  </si>
+  <si>
+    <t>TC-028</t>
+  </si>
+  <si>
+    <t>TC-029</t>
+  </si>
+  <si>
+    <t>A standard image and corresponding trimap are provided</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A high-resolution image and trimap are provided</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A noisy image and corresponding trimap are provided</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialising the displayed interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click or modify the System Log Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can not change anything</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ö</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Save function cannot be implemented and an error box pops up.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Save function cannot be implemented, and an error box pops up showing that save was unsuccessful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make sure all the inputs are correct and click the Start button to begin running the main programme.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All buttons are inoperative.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All buttons turn grey and are inactive.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.No input in the Original Image area
+2.Click Start Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.No Error Before
+2.Click Start Botton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.No image in the UIAxes
+2.Click Save Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The programme does not run, and an error box pops up preventing the user from continuing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.No input in the Trimap Image area
+2.Click Start Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Trimap Image But Not 3 Dimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input the trimap from dataset but it is gray scale image.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Click Input Button
+2.Gray image input into Image area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The programme continues to run with a pop-up box showing the picture dimensions and showing the default conversion to the same dimensions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No image shows in the UIAxes, and User click save button.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click the Start button and there is no input in the input Trimap Image area.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click the Start button and there is no input in the input Original Image area.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click the Start button and there is no input in the input Background Image area.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.No input in the Background Image area
+2.Click Start Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The programme continues to run, with a pop-up box indicating that no user has entered a background image, and showing that the default values will be used.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click the Start button, there are two Images in the Original and Trimap area but with different size.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Two diffient size images input into the Image area
+2.Click Start Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The programme doesn't run, the pop-up box reports an error that the two images are not the same size.</t>
+  </si>
+  <si>
+    <t>This value must be greater than or equal to 0 in the programme.</t>
+  </si>
+  <si>
+    <t>This value must be of numeric type in the programme.</t>
+  </si>
+  <si>
+    <t>1.Type letters into the edit area of the Iteration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Type letters into the edit area of the OriginValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Type a negative number into OriginValue edit area.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Type a negative number into Iteration edit area.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immediately after typing this, an error is reported.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A pop-up box reports an error after input and returns the initial value of 10.</t>
+  </si>
+  <si>
     <t>Processing Standard Image and Trimap</t>
-  </si>
-  <si>
-    <t>A standard image and corresponding trimap are provided</t>
-  </si>
-  <si>
-    <t>Foreground, background, and matte are correctly generated</t>
-  </si>
-  <si>
-    <t>TC-002</t>
-  </si>
-  <si>
-    <t>Processing High-Resolution Image</t>
-  </si>
-  <si>
-    <t>A high-resolution image and trimap are provided</t>
-  </si>
-  <si>
-    <t>Foreground, background, and matte are correctly generated without performance issues</t>
-  </si>
-  <si>
-    <t>TC-003</t>
-  </si>
-  <si>
-    <t>Handling Incomplete Trimap</t>
-  </si>
-  <si>
-    <t>An image and an incomplete trimap are provided</t>
-  </si>
-  <si>
-    <t>The function should handle the incomplete trimap appropriately</t>
-  </si>
-  <si>
-    <t>TC-004</t>
-  </si>
-  <si>
-    <t>Handling Missing Trimap</t>
-  </si>
-  <si>
-    <t>An image is provided without a trimap</t>
-  </si>
-  <si>
-    <t>The function should appropriately error out or handle the missing trimap</t>
-  </si>
-  <si>
-    <t>TC-005</t>
-  </si>
-  <si>
-    <t>Processing Noisy Image</t>
-  </si>
-  <si>
-    <t>A noisy image and corresponding trimap are provided</t>
-  </si>
-  <si>
-    <t>Foreground, background, and matte should be correctly generated despite the noise</t>
-  </si>
-  <si>
-    <t>Exception Handling</t>
-  </si>
-  <si>
-    <t>1. Execute the Bayesian_Matting function
-2. Observe the results for foreground, background, and matte</t>
-  </si>
-  <si>
-    <t>1. Execute the Bayesian_Matting function
-2. Observe the results</t>
-  </si>
-  <si>
-    <t>1. Execute the Bayesian_Matting function
-2. Observe how the function responds</t>
-  </si>
-  <si>
-    <t>UC-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC-002</t>
-  </si>
-  <si>
-    <t>UC-003</t>
-  </si>
-  <si>
-    <t>UC-005</t>
-  </si>
-  <si>
-    <t>UC-009</t>
-  </si>
-  <si>
-    <t>UC-010</t>
-  </si>
-  <si>
-    <t>UC-011</t>
-  </si>
-  <si>
-    <t>UC-012</t>
-  </si>
-  <si>
-    <t>UC-013</t>
-  </si>
-  <si>
-    <t>UC-014</t>
-  </si>
-  <si>
-    <t>UC-015</t>
-  </si>
-  <si>
-    <t>UC-016</t>
-  </si>
-  <si>
-    <t>UC-017</t>
-  </si>
-  <si>
-    <t>UC-018</t>
-  </si>
-  <si>
-    <t>UC-019</t>
-  </si>
-  <si>
-    <t>UC-020</t>
-  </si>
-  <si>
-    <t>UC-021</t>
-  </si>
-  <si>
-    <t>UC-022</t>
-  </si>
-  <si>
-    <t>UC-023</t>
-  </si>
-  <si>
-    <t>UC-024</t>
-  </si>
-  <si>
-    <t>UC-025</t>
-  </si>
-  <si>
-    <t>UC-026</t>
-  </si>
-  <si>
-    <t>UC-027</t>
-  </si>
-  <si>
-    <t>UC-028</t>
-  </si>
-  <si>
-    <t>UC-029</t>
-  </si>
-  <si>
-    <t>UC-030</t>
-  </si>
-  <si>
-    <t>UC-031</t>
-  </si>
-  <si>
-    <t>UC-032</t>
-  </si>
-  <si>
-    <t>Alpha Matte Calculation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Background</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preprocessing pics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Case No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Case Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Performance Testing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exception Handling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noise Handling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generate frontImg(x, y, channel)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generate backImg(x, y, channel)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generate unkownImg(x, y, channel)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run the code to calculate means and covariance matrices.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run the code to generate output</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oriImg(x, y, 3), triMap(x, y, 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Robustness Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oriImg(x, y, 3), triMap(x, y), give gray picture input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generate matrix frontImg (x, y, channel), size equals to orgin image, get right part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generate matrix backImg(x, y, channel), size equals to orgin image, get right part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generate matrix unkownImg(x, y, channel), size equals to orgin image, get right part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generate matrix frontImg(x, y, channel), size equals to orgin image, get right part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Gray Trimap Input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frontImg and backImg have distinct non-zero regions; unknownImg is properly initialized.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Statistical Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trimap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.A high-resolution image
+2.Click Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.A noisy image image
+2.Click Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The system works well and produces good results.</t>
+  </si>
+  <si>
+    <t>The system works well and produces good results.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click Input Picture Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click Input Background Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click Save Picture Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click System Initialisation Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click Start Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set Component Correctly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choosing nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Click Input Picture Button
+2.Choose a picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Click Save Picture Button
+2.Choose a place to save the picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter a positive number in this field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input after clicked the button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Click Input Picture Button
+2.Choose nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Click Save Picture Button
+2.Choose nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Standard image
+2.Click Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The interaction box for selecting a specific image pops up successfully and is available for selection.</t>
+  </si>
+  <si>
+    <t>The interaction box for selecting a specific image pops up successfully and is available for selection.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully pops up an interactive box for saving the image and can be selected.</t>
+  </si>
+  <si>
+    <t>All data cleared.</t>
+  </si>
+  <si>
+    <t>Begin the Matting process.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This area allows you to enter the desired value and successfully change the result.</t>
+  </si>
+  <si>
+    <t>This area displays the programme running time and status in real time.</t>
+  </si>
+  <si>
+    <t>Successfully displays the picture.</t>
+  </si>
+  <si>
+    <t>The programme runs smoothly without errors and gets the matted image.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An error box pops up to show that the path has not been added.</t>
+  </si>
+  <si>
+    <t>An error box pops up to show that the path has not been added.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is no background image to enter, click the start button.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Make sure no background input
+2.Click Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The programme runs normally, the pop-up window shows the use of the defaults, and the background image input area shows the default white image.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +1043,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +1075,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -643,7 +1103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -666,11 +1126,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,11 +1197,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,9 +1213,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -995,25 +1507,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1045,110 +1557,110 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>156</v>
+        <v>110</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="B3" s="16"/>
       <c r="C3" s="4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="15"/>
+        <v>112</v>
+      </c>
+      <c r="B4" s="16"/>
       <c r="C4" s="4" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="15"/>
+        <v>113</v>
+      </c>
+      <c r="B5" s="16"/>
       <c r="C5" s="4" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>176</v>
+        <v>114</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>42</v>
@@ -1160,7 +1672,7 @@
         <v>54</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>55</v>
@@ -1169,11 +1681,11 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="14"/>
+        <v>115</v>
+      </c>
+      <c r="B7" s="15"/>
       <c r="C7" s="8" t="s">
         <v>44</v>
       </c>
@@ -1181,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>43</v>
@@ -1193,11 +1705,11 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="14"/>
+        <v>116</v>
+      </c>
+      <c r="B8" s="15"/>
       <c r="C8" s="8" t="s">
         <v>45</v>
       </c>
@@ -1217,11 +1729,11 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="14"/>
+        <v>117</v>
+      </c>
+      <c r="B9" s="15"/>
       <c r="C9" s="8" t="s">
         <v>47</v>
       </c>
@@ -1241,11 +1753,11 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="14"/>
+        <v>118</v>
+      </c>
+      <c r="B10" s="15"/>
       <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
@@ -1265,11 +1777,11 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="8" t="s">
         <v>50</v>
       </c>
@@ -1289,16 +1801,16 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="14"/>
+        <v>120</v>
+      </c>
+      <c r="B12" s="15"/>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>63</v>
@@ -1313,11 +1825,11 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="14"/>
+        <v>121</v>
+      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="8" t="s">
         <v>53</v>
       </c>
@@ -1337,12 +1849,12 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>154</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -1363,11 +1875,11 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="15"/>
+        <v>123</v>
+      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1387,11 +1899,11 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="15"/>
+        <v>124</v>
+      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
@@ -1411,11 +1923,11 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="15"/>
+        <v>125</v>
+      </c>
+      <c r="B17" s="16"/>
       <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1435,11 +1947,11 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="15"/>
+        <v>126</v>
+      </c>
+      <c r="B18" s="16"/>
       <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1459,11 +1971,11 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="15"/>
+        <v>127</v>
+      </c>
+      <c r="B19" s="16"/>
       <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1483,11 +1995,11 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>128</v>
+      </c>
+      <c r="B20" s="16"/>
       <c r="C20" s="4" t="s">
         <v>28</v>
       </c>
@@ -1507,11 +2019,11 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="B21" s="16"/>
       <c r="C21" s="4" t="s">
         <v>30</v>
       </c>
@@ -1531,12 +2043,12 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>155</v>
+        <v>130</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>68</v>
@@ -1557,11 +2069,11 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="14"/>
+        <v>131</v>
+      </c>
+      <c r="B23" s="15"/>
       <c r="C23" s="8" t="s">
         <v>70</v>
       </c>
@@ -1581,11 +2093,11 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="14"/>
+        <v>132</v>
+      </c>
+      <c r="B24" s="15"/>
       <c r="C24" s="8" t="s">
         <v>72</v>
       </c>
@@ -1605,11 +2117,11 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="14"/>
+        <v>133</v>
+      </c>
+      <c r="B25" s="15"/>
       <c r="C25" s="8" t="s">
         <v>73</v>
       </c>
@@ -1629,11 +2141,11 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="14"/>
+        <v>134</v>
+      </c>
+      <c r="B26" s="15"/>
       <c r="C26" s="8" t="s">
         <v>75</v>
       </c>
@@ -1653,11 +2165,11 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="14"/>
+        <v>135</v>
+      </c>
+      <c r="B27" s="15"/>
       <c r="C27" s="8" t="s">
         <v>88</v>
       </c>
@@ -1677,11 +2189,11 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="14"/>
+        <v>136</v>
+      </c>
+      <c r="B28" s="15"/>
       <c r="C28" s="8" t="s">
         <v>92</v>
       </c>
@@ -1701,11 +2213,11 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="14"/>
+        <v>137</v>
+      </c>
+      <c r="B29" s="15"/>
       <c r="C29" s="8" t="s">
         <v>76</v>
       </c>
@@ -1740,166 +2252,896 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE3485A-70B3-44BC-B593-81EE8B29784F}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="6" width="34.5" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" customWidth="1"/>
+    <col min="8" max="9" width="39.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="E29" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="E30" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B14:B30"/>
+    <mergeCell ref="E2:E13"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C14:C18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
